--- a/Data/description/summary_sai_2023.xlsx
+++ b/Data/description/summary_sai_2023.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -521,10 +521,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1148779363540949</v>
+        <v>0.1139922102577176</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2167503264498201</v>
+        <v>0.2385110700341392</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.004692123171244926</v>
+        <v>0.004635337190239398</v>
       </c>
     </row>
     <row r="6">
@@ -542,16 +542,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1208982699897799</v>
+        <v>-0.3119736114502804</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3997117805238622</v>
+        <v>0.4051864614645953</v>
       </c>
       <c r="D6" t="n">
-        <v>2.039046420128074</v>
+        <v>2.039549999172388</v>
       </c>
       <c r="E6" t="n">
-        <v>2.033359639181707</v>
+        <v>2.037651483293016</v>
       </c>
     </row>
     <row r="7">
@@ -561,16 +561,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7.534686809575764e-06</v>
+        <v>5.696501919885483e-06</v>
       </c>
       <c r="C7" t="n">
-        <v>9.258948719587455e-05</v>
+        <v>9.711012037601861e-05</v>
       </c>
       <c r="D7" t="n">
-        <v>9.864812081995255e-12</v>
+        <v>1.426013960657447e-11</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6092521231475798</v>
+        <v>0.6171934537795797</v>
       </c>
     </row>
     <row r="8">
@@ -580,16 +580,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.2291637853736393</v>
+        <v>0.2318910229327334</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5904451267729008</v>
+        <v>0.5884570449714245</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.3240835137917381</v>
+        <v>0.3165170992791219</v>
       </c>
     </row>
     <row r="9">
@@ -599,14 +599,33 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.07034329760219458</v>
+        <v>-0.06611816366176471</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.131908116764266</v>
+        <v>-0.1209450929509769</v>
       </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>-0.06923073133726343</v>
+        <v>-0.0688656392295658</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>number of subgroups</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>3</v>
+      </c>
+      <c r="C10" t="n">
+        <v>3</v>
+      </c>
+      <c r="D10" t="n">
+        <v>13</v>
+      </c>
+      <c r="E10" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
